--- a/public/data/categorieen.xlsx
+++ b/public/data/categorieen.xlsx
@@ -2,22 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorieen" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,15 +48,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.1499374370555742"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.1499374370555742"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.1499374370555742"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.1499374370555742"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +437,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="42" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -441,24 +470,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Omzet</t>
+          <t>4500 Huisvestingskosten</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OPBRENGSTEN</t>
+          <t>KOSTEN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Algemene omzet</t>
+          <t>Huur/energie/onderhoud van kantoor of werkruimte.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kantoorkosten</t>
+          <t>4600 Autokosten</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -466,12 +495,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Autokosten (brandstof, onderhoud, verzekering, etc.).</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4500 Huisvestingskosten</t>
+          <t>4640 Kilometervergoeding</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -479,12 +512,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kilometervergoeding (bijv. €0,23/km) aan DGA/werknemers.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4600 Autokosten</t>
+          <t>4700 Reclame en advertenties</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -492,12 +529,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Marketing/reclame (online ads, drukwerk, campagnes).</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4640 Kilometervergoeding</t>
+          <t>4730 Relatiegeschenken</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -505,12 +546,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Relatiegeschenken (let op fiscale aftrekbeperking).</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4700 Reclame en advertenties</t>
+          <t>4740 Reis- en verblijfkosten</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -518,12 +563,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Reis- en verblijfkosten (OV, hotel, parkeren, etc.).</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4730 Relatiegeschenken</t>
+          <t>4742 Representatie en verteer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -531,12 +580,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Representatie/verteer (horeca/lunch/borrel; let op aftrek).</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4740 Reis- en verblijfkosten</t>
+          <t>4790 Overige verkoopkosten</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,12 +597,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Overige verkoopkosten die niet elders passen.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4742 Representatie en verteer</t>
+          <t>4800 Afschrijvingskosten</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -557,12 +614,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Afschrijvingen op activa (inventaris/auto/software, etc.).</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4790 Overige verkoopkosten</t>
+          <t>4900 Telefoon en internet</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -570,12 +631,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Telefoon- en internetabonnementen.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4800 Afschrijvingskosten</t>
+          <t>4910 Contributies en abonnementen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -583,12 +648,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Contributies en abonnementen (zakelijk).</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4900 Telefoon en internet</t>
+          <t>4915 Cursussen/seminars</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -596,12 +665,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Opleidingen/cursussen/seminars (zakelijk).</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4910 Contributies en abonnementen</t>
+          <t>4920 Verzekeringen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -609,12 +682,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Zakelijke verzekeringen (premies).</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4915 Cursussen/seminars</t>
+          <t>4930 Kantoorbenodigdheden</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -622,12 +699,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kantoorbenodigdheden (papier, toner, klein materiaal).</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4920 Verzekeringen</t>
+          <t>4931 Kleine aanschaf kantoor</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -635,12 +716,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kleine kantoor-aanschaf (niet activeren/afschrijven).</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4930 Kantoorbenodigdheden</t>
+          <t>4932 Vakliteratuur</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -648,12 +733,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vakliteratuur/boeken (zakelijk).</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4931 Kleine aanschaf kantoor</t>
+          <t>4933 Software</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -661,12 +750,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Software/SaaS licenties (Office, tools, etc.).</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4932 Vakliteratuur</t>
+          <t>4940 Accountants- en administratiekosten</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -674,12 +767,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Accountant/boekhouder en administratiekosten.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4933 Software</t>
+          <t>4950 Drukwerk, porti en vrachten</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -687,12 +784,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Drukwerk, porti en vracht/bezorgkosten.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4940 Accountants- en administratiekosten</t>
+          <t>4960 Branche-organisatiekosten</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -700,12 +801,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Branche- en organisatiekosten (lidmaatschappen).</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4950 Drukwerk, porti en vrachten</t>
+          <t>4980 Bankkosten</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -713,12 +818,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bankkosten (rekening, transacties, betaalpassen).</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4960 Branche-organisatiekosten</t>
+          <t>4990 Overige algemene kosten</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -726,12 +835,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Overige algemene kosten.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4980 Bankkosten</t>
+          <t>7000 Inkopen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -739,12 +852,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Inkopen / inkoopwaarde van goederen (of COGS).</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4990 Overige algemene kosten</t>
+          <t>7100 Uitbesteed werk</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -752,25 +869,33 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Uitbesteed werk / onderaannemers / freelancers.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7000 Inkopen</t>
+          <t>9090 Rente baten</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KOSTEN</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rente-inkomsten (spaarrekening, leningen, obligaties).</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7100 Uitbesteed werk</t>
+          <t>9190 Rente lasten</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -778,12 +903,16 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rente-kosten (leningen, credit, rekening-courant).</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9090 Rente baten</t>
+          <t>9300 Betalingsverschillen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -791,33 +920,606 @@
           <t>KOSTEN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Betaal-/afrondingsverschillen en kleine koersverschillen.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>9190 Rente lasten</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>KOSTEN</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>8000 Omzet NL</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Omzet binnen NL (algemeen).</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>9300 Betalingsverschillen</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>KOSTEN</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>8001 Omzet uren</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Omzet uren (uurtarief / detachering).</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>8002 Omzet producten</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Omzet producten (verkoop goederen).</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>8003 Omzet diensten</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Omzet diensten (verkoop dienstverlening).</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>8004 Omzet overig</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Overige omzet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>8010 Omzet EU</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Omzet EU (let op btw-regels/ICP).</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>8020 Omzet buiten EU</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Omzet buiten EU (export; vaak 0% btw).</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>0500 Kapitaal</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Eigen vermogen: geplaatst/gestort kapitaal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>0510 Privéstortingen</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Privéstortingen / extra kapitaalstorting aandeelhouder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>0520 Privéopnamen</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Privéopnamen / onttrekkingen aandeelhouder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>0550 Agioreserve</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Agioreserve (share premium).</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>0890 Langlopende leningen</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Langlopende leningen (looptijd &gt; 1 jaar).</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>1190 Kruisposten</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Kruisposten: tijdelijk parkeren/doorboeken (suspense).</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>1300 Waarborgsommen</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Waarborgsommen/borg (balans; terug te ontvangen/te betalen).</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>1400 Vorderingen (kortlopend)</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Kortlopende vorderingen (debiteuren/overig).</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>1500 Btw af te dragen hoog</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Btw af te dragen hoog tarief (21%).</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>1510 Btw af te dragen laag</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Btw af te dragen laag tarief (9%).</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>1520 Voorbelasting</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Voorbelasting (aftrekbare btw op kosten).</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>1560 Btw betaald/ontvangen</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Btw betaald/ontvangen bij afrekening/suppletie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>1600 Crediteuren</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Crediteuren / te betalen leveranciers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>1990 Schulden (kortlopend)</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Overige kortlopende schulden (nog te betalen).</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1700 Beleggingen (aandelen/ETF)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Beleggingen (aandelen/ETF) op balans; volgens jouw waarderingsmethode.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1710 Beleggingsrekening / broker saldo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Beleggingsrekening/broker saldo (cash).</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1720 Nog te ontvangen dividend</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Nog te ontvangen dividend (ex-dividend tot ontvangst).</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1730 Te vorderen dividendbelasting</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Te vorderen dividendbelasting / bronbelasting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1740 Nog te ontvangen rente (beleggingen)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PASSIVA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nog te ontvangen rente (beleggingen/cash bij broker).</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>8300 Dividendopbrengsten</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Dividendopbrengsten (bruto); bronbelasting apart boeken.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>8310 Koerswinsten aandelen/ETF (gerealiseerd)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Gerealiseerde koerswinsten bij verkoop aandelen/ETF.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>8320 Rente-inkomsten beleggingen</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>OPBRENGSTEN</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rente-inkomsten uit beleggingen/cash bij broker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>5550 Transactiekosten effecten</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>KOSTEN</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Transactiekosten bij aankoop/verkoop effecten.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>5551 Fondskosten ETF (TER) / beheerkosten</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>KOSTEN</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fondskosten/TER en beheerkosten ETF/fonds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>5552 Bewaarloon / servicekosten broker</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KOSTEN</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Bewaarkosten / servicekosten broker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>5553 Valutakosten / FX-kosten</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>KOSTEN</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Valutakosten/FX-kosten (conversie, spread).</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>5554 Dividendkosten / corporate actions fees</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KOSTEN</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Dividendkosten / corporate actions fees (broker).</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>5555 Koersverliezen aandelen/ETF (gerealiseerd)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>KOSTEN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Gerealiseerde koersverliezen bij verkoop aandelen/ETF.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
